--- a/徐思涵/测试场景.xlsx
+++ b/徐思涵/测试场景.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="52">
   <si>
     <t>技术栈</t>
   </si>
@@ -134,6 +134,42 @@
   </si>
   <si>
     <t>收藏</t>
+  </si>
+  <si>
+    <t>投票</t>
+  </si>
+  <si>
+    <t>&lt;=81%</t>
+  </si>
+  <si>
+    <t>&gt;=95.96%</t>
+  </si>
+  <si>
+    <t>发起投票</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10线程/81s递增 </t>
+  </si>
+  <si>
+    <t>MySQL有9个存量账户</t>
+  </si>
+  <si>
+    <t>&lt;=82%</t>
+  </si>
+  <si>
+    <t>&gt;=95.97%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10线程/82s递增 </t>
+  </si>
+  <si>
+    <t>MySQL有10个存量账户</t>
+  </si>
+  <si>
+    <t>&lt;=83%</t>
+  </si>
+  <si>
+    <t>&gt;=95.98%</t>
   </si>
 </sst>
 </file>
@@ -141,10 +177,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -163,7 +199,121 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,114 +328,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,13 +341,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -315,187 +351,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,8 +548,17 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,6 +574,36 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,46 +627,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -614,10 +650,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -626,137 +662,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -768,6 +804,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1091,10 +1130,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16:N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -1189,13 +1228,13 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="24" customHeight="1" spans="1:14">
       <c r="A8" s="1" t="s">
@@ -1459,9 +1498,110 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" ht="26" customHeight="1"/>
-    <row r="16" s="1" customFormat="1" spans="6:6">
+    <row r="15" ht="49" customHeight="1" spans="1:14">
+      <c r="A15" s="1">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="J15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="42" spans="1:14">
+      <c r="A16" s="1">
+        <v>8</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="F16" s="3"/>
+      <c r="J16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" ht="42" spans="1:14">
+      <c r="A17" s="1">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="J17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="6:6">
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="6:6">
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="6:6">
+      <c r="F20" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1469,7 +1609,7 @@
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="J7:N7"/>
     <mergeCell ref="A2:A4"/>
-    <mergeCell ref="F9:F14"/>
+    <mergeCell ref="F9:F18"/>
     <mergeCell ref="G9:G14"/>
     <mergeCell ref="H9:H14"/>
     <mergeCell ref="I9:I14"/>

--- a/徐思涵/测试场景.xlsx
+++ b/徐思涵/测试场景.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="53">
   <si>
     <t>技术栈</t>
   </si>
@@ -158,6 +158,9 @@
   </si>
   <si>
     <t>&gt;=95.97%</t>
+  </si>
+  <si>
+    <t>发送表情</t>
   </si>
   <si>
     <t xml:space="preserve">10线程/82s递增 </t>
@@ -178,9 +181,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -209,6 +212,113 @@
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -220,66 +330,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -289,54 +339,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -357,43 +360,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,133 +522,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,24 +559,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -593,17 +583,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -627,18 +617,31 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -650,10 +653,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -662,133 +665,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1133,7 +1136,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16:N17"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -1568,11 +1571,14 @@
       <c r="A17" s="1">
         <v>9</v>
       </c>
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>35</v>
@@ -1582,16 +1588,16 @@
         <v>46</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="6:6">
